--- a/parameters/DeviceParameters_p3hTPCBM.xlsx
+++ b/parameters/DeviceParameters_p3hTPCBM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ma11115\Box\Github_mohammed_azzouzi\DriftFusion_OPV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/ma11115_ic_ac_uk/Documents/github_folder/DriftFusionOPV/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B306A93D-9AB5-4008-9809-5A99BB4826A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{B306A93D-9AB5-4008-9809-5A99BB4826A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA48D2F8-6B4C-4950-B454-1BCDBCC42A40}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17160" yWindow="5724" windowWidth="11064" windowHeight="5736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Epp</t>
   </si>
@@ -75,9 +75,6 @@
     <t>tinterL</t>
   </si>
   <si>
-    <t>epointsL</t>
-  </si>
-  <si>
     <t>XiL</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>Layer thickness and number of xgrid points</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of points </t>
-  </si>
-  <si>
     <t>Exciton dissociation rate constant</t>
   </si>
   <si>
@@ -142,6 +136,15 @@
   </si>
   <si>
     <t>rate of transfer between states</t>
+  </si>
+  <si>
+    <t>Layer thickness and spacing of xgrid points (nm)</t>
+  </si>
+  <si>
+    <t>Spacing for the rest of the layer</t>
+  </si>
+  <si>
+    <t>spacing for the layer at the interface</t>
   </si>
 </sst>
 </file>
@@ -466,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AI1"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,25 +481,26 @@
     <col min="8" max="8" width="25.44140625" customWidth="1"/>
     <col min="9" max="9" width="27.88671875" customWidth="1"/>
     <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="17" max="17" width="36.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="3"/>
       <c r="K1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -504,7 +508,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -516,7 +520,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AD1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
@@ -547,10 +551,10 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
         <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
@@ -571,55 +575,55 @@
         <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
         <v>13</v>
       </c>
       <c r="T2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
         <v>14</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>15</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>16</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>17</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" t="s">
-        <v>21</v>
-      </c>
       <c r="AD2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>33</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
@@ -673,13 +677,13 @@
         <v>50</v>
       </c>
       <c r="R3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -688,16 +692,16 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="Y3">
         <v>1</v>
       </c>
       <c r="Z3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -774,31 +778,31 @@
         <v>100</v>
       </c>
       <c r="R4">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="S4">
         <v>25</v>
       </c>
       <c r="T4">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>1</v>
       </c>
       <c r="V4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="W4">
         <v>25</v>
       </c>
       <c r="X4">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="Y4">
         <v>1</v>
       </c>
       <c r="Z4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
@@ -875,25 +879,25 @@
         <v>50</v>
       </c>
       <c r="R5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>1</v>
       </c>
       <c r="V5">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1002,12 +1006,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AD1:AI1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:P1"/>
     <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="AD1:AI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
